--- a/data/source/JRI infographic data_old.xlsx
+++ b/data/source/JRI infographic data_old.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="24880" windowHeight="16820" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="84">
   <si>
     <t>State</t>
   </si>
@@ -270,17 +270,34 @@
     <t>West Virginia</t>
   </si>
   <si>
-    <t>PROJ_2020</t>
+    <t>On an average day in fiscal year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -303,17 +320,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -328,39 +363,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -395,7 +430,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -439,201 +474,142 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -641,13 +617,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="17" customWidth="1"/>
+    <col min="51" max="51" width="11.42578125" customWidth="1"/>
+    <col min="52" max="52" width="17.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -718,7 +706,7 @@
         <v>22</v>
       </c>
       <c r="X1" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="Y1" t="s">
         <v>23</v>
@@ -808,7 +796,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -926,14 +914,20 @@
       <c r="AW2">
         <v>2015</v>
       </c>
+      <c r="AX2" t="s">
+        <v>55</v>
+      </c>
       <c r="AY2">
         <v>2015</v>
       </c>
+      <c r="AZ2" t="s">
+        <v>55</v>
+      </c>
       <c r="BA2">
         <v>2015</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -1010,7 +1004,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -1129,7 +1123,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -1248,7 +1242,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -1370,7 +1364,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -1417,25 +1411,25 @@
         <v>10819</v>
       </c>
       <c r="AA7">
-        <v>4028</v>
+        <v>5936</v>
       </c>
       <c r="AB7">
-        <v>4155</v>
+        <v>6066</v>
       </c>
       <c r="AC7">
-        <v>4182</v>
+        <v>5938</v>
       </c>
       <c r="AD7">
-        <v>4140</v>
+        <v>5848</v>
       </c>
       <c r="AE7">
-        <v>3991</v>
+        <v>5593</v>
       </c>
       <c r="AF7">
-        <v>3153</v>
+        <v>4725</v>
       </c>
       <c r="AG7">
-        <v>3224</v>
+        <v>4808</v>
       </c>
       <c r="AJ7">
         <v>8011</v>
@@ -1492,7 +1486,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -1541,6 +1535,9 @@
       <c r="T8">
         <v>21584</v>
       </c>
+      <c r="AB8">
+        <v>10091</v>
+      </c>
       <c r="AC8">
         <v>10656</v>
       </c>
@@ -1556,6 +1553,9 @@
       <c r="AG8">
         <v>11588</v>
       </c>
+      <c r="AK8">
+        <v>23269</v>
+      </c>
       <c r="AL8">
         <v>23121</v>
       </c>
@@ -1592,14 +1592,20 @@
       <c r="AW8">
         <v>2015</v>
       </c>
+      <c r="AX8" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="AY8">
         <v>2015</v>
       </c>
+      <c r="AZ8" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="BA8">
         <v>2015</v>
       </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -1643,22 +1649,22 @@
         <v>39335</v>
       </c>
       <c r="AA9">
-        <v>23021</v>
+        <v>23819</v>
       </c>
       <c r="AB9">
-        <v>23210</v>
+        <v>23607</v>
       </c>
       <c r="AC9">
-        <v>25256</v>
+        <v>26105</v>
       </c>
       <c r="AD9">
-        <v>25834</v>
+        <v>26494</v>
       </c>
       <c r="AE9">
-        <v>26501</v>
+        <v>27092</v>
       </c>
       <c r="AF9">
-        <v>27481</v>
+        <v>29619</v>
       </c>
       <c r="AG9">
         <v>31293</v>
@@ -1679,7 +1685,7 @@
         <v>42753</v>
       </c>
       <c r="AO9">
-        <v>41705</v>
+        <v>40979</v>
       </c>
       <c r="AP9">
         <v>40883</v>
@@ -1705,14 +1711,20 @@
       <c r="AW9">
         <v>2015</v>
       </c>
+      <c r="AX9" t="s">
+        <v>66</v>
+      </c>
       <c r="AY9">
         <v>2015</v>
       </c>
+      <c r="AZ9" t="s">
+        <v>66</v>
+      </c>
       <c r="BA9">
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -1819,7 +1831,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -1944,7 +1956,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>70</v>
       </c>
@@ -2066,7 +2078,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -2116,25 +2128,25 @@
         <v>43220</v>
       </c>
       <c r="AA13">
-        <v>2067</v>
+        <v>2262</v>
       </c>
       <c r="AB13">
-        <v>2061</v>
+        <v>2268</v>
       </c>
       <c r="AC13">
-        <v>1900</v>
+        <v>2358</v>
       </c>
       <c r="AD13">
-        <v>1829</v>
+        <v>2793</v>
       </c>
       <c r="AE13">
-        <v>1612</v>
+        <v>4970</v>
       </c>
       <c r="AF13">
-        <v>1467</v>
+        <v>7913</v>
       </c>
       <c r="AG13">
-        <v>1407</v>
+        <v>10355</v>
       </c>
       <c r="AJ13">
         <v>109540</v>
@@ -2191,7 +2203,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -2322,7 +2334,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -2345,7 +2357,7 @@
         <v>28182</v>
       </c>
       <c r="J15">
-        <v>28905</v>
+        <v>28095</v>
       </c>
       <c r="O15">
         <v>26692</v>
@@ -2438,16 +2450,16 @@
         <v>74</v>
       </c>
       <c r="AY15">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="AZ15" t="s">
         <v>74</v>
       </c>
       <c r="BA15">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>75</v>
       </c>
@@ -2524,7 +2536,7 @@
         <v>17184</v>
       </c>
       <c r="AQ16">
-        <v>14200000</v>
+        <v>18408538</v>
       </c>
       <c r="AR16">
         <v>98000000</v>
@@ -2557,49 +2569,61 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:53" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
-      <c r="D17">
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17" s="1">
         <v>50622</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>51281</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>51290</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>51757</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>51382</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="1">
         <v>51118</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="1">
         <v>50366</v>
       </c>
-      <c r="O17">
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17" s="1">
         <v>51638</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="1">
         <v>51722</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="1">
         <v>52279</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="1">
         <v>52236</v>
       </c>
-      <c r="S17">
+      <c r="S17" s="1">
         <v>51693</v>
       </c>
-      <c r="T17">
+      <c r="T17" s="1">
         <v>51151</v>
       </c>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
       <c r="AA17">
         <v>23224</v>
       </c>
@@ -2621,6 +2645,8 @@
       <c r="AG17">
         <v>33076</v>
       </c>
+      <c r="AH17"/>
+      <c r="AI17"/>
       <c r="AJ17">
         <v>7876</v>
       </c>
@@ -2654,7 +2680,7 @@
       <c r="AT17">
         <v>2011</v>
       </c>
-      <c r="AU17" t="s">
+      <c r="AU17" s="2" t="s">
         <v>55</v>
       </c>
       <c r="AV17">
@@ -2663,20 +2689,20 @@
       <c r="AW17">
         <v>2015</v>
       </c>
-      <c r="AX17" t="s">
+      <c r="AX17" s="3" t="s">
         <v>78</v>
       </c>
       <c r="AY17">
         <v>2015</v>
       </c>
-      <c r="AZ17" t="s">
+      <c r="AZ17" s="3" t="s">
         <v>78</v>
       </c>
       <c r="BA17">
         <v>2015</v>
       </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>79</v>
       </c>
@@ -2780,7 +2806,7 @@
         <v>2009</v>
       </c>
       <c r="AU18" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AV18">
         <v>2015</v>
@@ -2789,19 +2815,19 @@
         <v>2014</v>
       </c>
       <c r="AX18" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="AY18">
         <v>2015</v>
       </c>
       <c r="AZ18" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="BA18">
         <v>2015</v>
       </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -2917,7 +2943,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>82</v>
       </c>
@@ -3013,11 +3039,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>